--- a/script_master_data_python/ficherosExcelOrigen/DED-FDAR_Adopcion IA_v1a.xlsx
+++ b/script_master_data_python/ficherosExcelOrigen/DED-FDAR_Adopcion IA_v1a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E7414-5585-4BC3-A9D6-5751D7420BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7DB401-4B56-4EDB-A382-BE04B5C0B0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19448,7 +19448,7 @@
   <dimension ref="B2:AS164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS12"/>
@@ -35821,15 +35821,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
@@ -35841,6 +35832,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35863,14 +35863,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -35878,4 +35870,12 @@
     <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>